--- a/input_xlsx/Hassan 011.xlsx
+++ b/input_xlsx/Hassan 011.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIPA\Desktop\Hassan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8130" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -2608,25 +2603,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2000-04-9/2000-05-30</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAPUA </t>
   </si>
   <si>
-    <t>UNCEN-2000AW-AF002-CAPA002</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>Animalia</t>
-  </si>
-  <si>
-    <t>UNCEN-2000AW-AF002-CAPA001-AR002</t>
   </si>
   <si>
     <t xml:space="preserve"> Deskriptif Survey dan Studi Kasus</t>
@@ -2812,7 +2792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,12 +2807,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,7 +2962,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -2997,7 +2971,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3439,27 +3412,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="64.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3521,21 +3494,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7">
         <v>6</v>
@@ -3544,12 +3517,12 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="10">
+        <v>54</v>
+      </c>
+      <c r="K2" s="9">
         <v>-2.9267379999999998</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>135.70240100000001</v>
       </c>
       <c r="M2" t="s">
@@ -3559,58 +3532,58 @@
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3626,34 +3599,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3706,35 +3679,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="10">
+        <v>61</v>
+      </c>
+      <c r="I2" s="9">
         <v>-2.9267379999999998</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>135.70240100000001</v>
       </c>
       <c r="K2" t="s">
@@ -3747,35 +3720,10 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3794,25 +3742,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3844,33 +3792,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="11">
+        <v>37937</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="12">
-        <v>37937</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3888,20 +3836,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
